--- a/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
+++ b/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="189">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -725,6 +725,411 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄月英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大乔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙尚香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张辽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甄姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华佗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貂蝉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁德――出牌阶段限一次，你可以将任意数量的手牌交给其他角色，若此阶段你给出的牌张数首次达到两张或更多时，你回复1点体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激将――主公技，当你需要使用或打出一张【杀】时，你可令其他蜀势力角色打出一张【杀】(视为由你使用或打出)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咆哮――出牌阶段，你使用【杀】无次数限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武圣――你可以将一张红色牌当【杀】使用或打出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>观星</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>――</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准备阶段开始时，你可以观看牌堆顶的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为角色的数且最多为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，将其中任意数量的牌以任意顺序置于牌堆顶，其余以任意顺序置于牌堆底</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空城――锁定技，若你没有手牌，你不能成为【杀】或【决斗】的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙胆――你可以将【杀】当【闪】，【闪】当【杀】使用或打出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马术――锁定技，你计算与其他角色的距离-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁骑――当你使用【杀】指定了一名角色为目标后，你可以进行一次判定，若为红色，此【杀】不可被【闪】响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集智――当你使用一张锦囊牌时，你可以展示牌顶一张牌，若此牌为基本牌，将之置入弃牌堆或使用一张手牌与之交换；若不为基本牌，则将之收入手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇才――锁定技，你使用锦囊牌无距离限制。其他角色不能不能弃置你装备区里除坐骑之外的牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制衡――出牌阶段限一次，你可以弃置任意数量的牌，然后摸等量的牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救援――主公技，锁定技，当其他吴势力角色在你濒死状态下对你使用【桃】时，你额外回复1点体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇袭――你可以将一张黑色牌当【过河拆桥】使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克己――若你于出牌阶段未使用或打出过【杀】，你可以跳过此回合的弃牌阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦肉――出牌阶段，你可以失去1点体力，然后摸两张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英姿――摸牌阶段，你可以多摸一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反间―― 出牌阶段限一次，你可以指定一名其他角色，该角色选择一种花色后获得你的一张手牌并展示之，若此牌与所选花色不同，则你对该角色造成1点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国色――出牌阶段，你可以将一张方块牌当【乐不思蜀】使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流离――当你成为【杀】的目标时，你可以弃置一张牌将此【杀】转移给你攻击范围内的一名其他角色（该角色不得是此【杀】的使用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谦逊――锁定技，你不能成为【顺手牵羊】和【乐不思蜀】的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连营――当你失去最后一张手牌时，你可以摸一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结姻――出牌阶段限一次，你可以弃置两张手牌并指定一名已受伤的男性角色，你与其各回复1点体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枭姬――当你失去装备区里的一张装备牌时，你可以摸两张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奸雄――当你受到伤害后，你可以获得对你造成伤害的牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护驾――主公技，当你需要使用或打出一张【闪】时，你可令其他魏势力角色打出一张【闪】(视为由你使用或打出)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈――当你受到一次伤害后，你可以获得伤害来源的一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼才――在判定牌生效前，你可以打出一张手牌代替之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚烈――当你受到一次伤害后，你可以判定，若不为红桃，伤害来源选择一项：弃置两张手牌，或受到你对其造成的1点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突袭――摸牌阶段开始时，你可以放弃摸牌，改为获得一至两名其他角色的各一张手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裸衣――摸牌阶段摸牌时，你可以少摸一张牌，若如此做，当你于此回合内使用【杀】或【决斗】对目标角色造成伤害时，此伤害+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天妒――在你的判定牌生效后，你可以获得此牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗计――每当你受到1点伤害后，可观看牌堆顶的两张牌，将其中一张交给任意一名角色，然后将另一张交给一名角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾国――你可以将一张黑色手牌当【闪】使用或打出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛神――准备阶段开始时，你可以判定：若结果为黑色，你获得此牌；你可以重复此流程，直到出现红色的判定结果为止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救――你的回合外，你可以将一张红色牌当【桃】使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青囊――出牌阶段限一次，你可以弃置一张手牌，令一名已受伤的角色回复1点体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无双——锁定技，当你使用【杀】指定一名角色为目标后，该角色需连续使用两张【闪】才能抵消；与你进行【决斗】的角色需连续打出两张【杀】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离间――出牌阶段限一次，你可以弃置一张牌并选择两名男性角色，然后视为其中一名男性角色对另一名男性角色使用一张【决斗】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭月――结束阶段开始时，你可以摸一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妄尊——主公的准备阶段开始时，你可以摸一张牌，若如此做，主公本回合手牌上限-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同疾——锁定技，若你的手牌数大于你的体力值，你在其攻击范围内的其他角色使用【杀】时只能指定你为目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耀武——锁定技，当你受到红色【杀】造成的伤害时，伤害来源可以选择回复一点体力或摸一张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,7 +1137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,6 +1163,19 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1171,14 +1589,549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="127.25" customWidth="1"/>
+    <col min="6" max="6" width="63.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2005</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2007</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3005</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3006</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3007</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4003</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4004</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1186,7 +2139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>

--- a/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
+++ b/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
     <sheet name="cards" sheetId="2" r:id="rId2"/>
+    <sheet name="status" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -297,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="194">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1130,6 +1131,26 @@
   </si>
   <si>
     <t>耀武——锁定技，当你受到红色【杀】造成的伤害时，伤害来源可以选择回复一点体力或摸一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内奸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反贼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1591,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2139,8 +2160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3458,10 +3479,10 @@
     </row>
     <row r="33" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
-        <v>604</v>
+        <v>701</v>
       </c>
       <c r="B33" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>82</v>
@@ -3496,10 +3517,10 @@
     </row>
     <row r="34" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
-        <v>605</v>
+        <v>702</v>
       </c>
       <c r="B34" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>82</v>
@@ -3534,10 +3555,10 @@
     </row>
     <row r="35" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
-        <v>606</v>
+        <v>703</v>
       </c>
       <c r="B35" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>96</v>
@@ -3576,4 +3597,58 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
+++ b/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="185">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,18 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10,10,J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,6,7,8,8,9,9,10,10,J,J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,8,9,10,K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,26 +435,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,2,K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,3,4,5,6,7,8,9,10,J,J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抵消目标【杀】的效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,4,6,7,8,9,Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标角色恢复1点体力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,10 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.4.Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,18 +459,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出牌阶段，对一名其他角色使用，你与其轮流打出一张【杀】，首先不出杀的一方受到1点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,4,J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,42 +471,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q,K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出牌阶段，对装备区有武器牌的一名角色使用，该角色对其攻击范围内，由你指定的另一名角色使用一张【杀】，否则你获得其武器牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7,8,9,J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出牌阶段，对你使用，摸两张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抵消目标锦囊对另一名角色产生的效果，或抵消另一张【无懈可击】产生的效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7,K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出牌阶段对所有的角色使用，每名角色需要打出一张【杀】，否则受到1点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出牌阶段对所有的角色使用，每名角色需要打出一张【闪】，否则受到1点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,18 +507,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出牌阶段，对你使用，放于你判定区内，若判定结果为黑桃2~9，则目标受到3点雷电伤害；若判定不为此结果，将移至下一家判定区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出牌阶段，你可以使用任意数量的【杀】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,10 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你可以将两张手牌当一张【杀】使用或打出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,10 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>爪黄飞电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,10 +602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,14 +623,6 @@
   </si>
   <si>
     <t>出牌阶段使用，分别横置或重置其武将牌</t>
-  </si>
-  <si>
-    <t>J,Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,J,Q,K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2,3</t>
@@ -1152,6 +1064,48 @@
   <si>
     <t>反贼</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,6,7,8,8,9,9,10,10,11,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8,9,10,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,3,4,5,6,7,8,9,10,11,11</t>
+  </si>
+  <si>
+    <t>3,4,11</t>
+  </si>
+  <si>
+    <t>7,8,9,11</t>
+  </si>
+  <si>
+    <t>3,4,6,7,8,9,12</t>
+  </si>
+  <si>
+    <t>3.4.12</t>
+  </si>
+  <si>
+    <t>11,12</t>
+  </si>
+  <si>
+    <t>10,11,12,13</t>
+  </si>
+  <si>
+    <t>7,13</t>
+  </si>
+  <si>
+    <t>2,2,13</t>
+  </si>
+  <si>
+    <t>12,13</t>
   </si>
 </sst>
 </file>
@@ -1624,22 +1578,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1647,19 +1601,19 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1667,16 +1621,16 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1684,16 +1638,16 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1701,19 +1655,19 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1721,16 +1675,16 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1738,19 +1692,19 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1758,19 +1712,19 @@
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1778,19 +1732,19 @@
         <v>2001</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1798,16 +1752,16 @@
         <v>2002</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1815,16 +1769,16 @@
         <v>2003</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1832,16 +1786,16 @@
         <v>2004</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1849,19 +1803,19 @@
         <v>2005</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1869,19 +1823,19 @@
         <v>2006</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1889,19 +1843,19 @@
         <v>2007</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1909,19 +1863,19 @@
         <v>2008</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1929,19 +1883,19 @@
         <v>3001</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1949,19 +1903,19 @@
         <v>3002</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1969,16 +1923,16 @@
         <v>3003</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1986,16 +1940,16 @@
         <v>3004</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2003,16 +1957,16 @@
         <v>3005</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2020,19 +1974,19 @@
         <v>3006</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2040,19 +1994,19 @@
         <v>3007</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2060,19 +2014,19 @@
         <v>4001</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2080,16 +2034,16 @@
         <v>4002</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2097,19 +2051,19 @@
         <v>4003</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2117,19 +2071,19 @@
         <v>4004</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2137,16 +2091,16 @@
         <v>4005</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C28">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2160,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2197,22 +2151,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2226,13 +2180,13 @@
         <v>32</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>7</v>
@@ -2253,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2270,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>8</v>
@@ -2294,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2311,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>42</v>
+        <v>178</v>
+      </c>
+      <c r="F4" s="10">
+        <v>12</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>9</v>
@@ -2335,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2346,13 +2300,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="E5" s="18">
+        <v>12</v>
       </c>
       <c r="F5" s="18">
         <v>0</v>
@@ -2376,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2387,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
@@ -2396,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>11</v>
@@ -2417,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2427,17 +2381,17 @@
       <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>49</v>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
       </c>
       <c r="E7" s="18">
         <v>0</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>49</v>
+      <c r="F7" s="18">
+        <v>1</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>12</v>
@@ -2458,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2472,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
@@ -2499,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2519,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>14</v>
@@ -2540,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2550,11 +2504,11 @@
       <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>58</v>
+      <c r="C10" s="18">
+        <v>11</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
@@ -2581,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2592,10 +2546,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
@@ -2622,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2639,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="F12" s="18">
+        <v>12</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>17</v>
@@ -2663,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2679,8 +2633,8 @@
       <c r="D13" s="18">
         <v>0</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>62</v>
+      <c r="E13" s="18">
+        <v>1</v>
       </c>
       <c r="F13" s="18">
         <v>0</v>
@@ -2704,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2715,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="D14" s="18">
         <v>7</v>
@@ -2745,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2761,8 +2715,8 @@
       <c r="D15" s="18">
         <v>0</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>49</v>
+      <c r="E15" s="18">
+        <v>1</v>
       </c>
       <c r="F15" s="18">
         <v>0</v>
@@ -2786,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2803,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F16" s="18">
         <v>0</v>
@@ -2827,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2837,8 +2791,8 @@
       <c r="B17" s="11">
         <v>3</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>68</v>
+      <c r="C17" s="12">
+        <v>1</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -2868,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2909,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2950,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2963,14 +2917,14 @@
       <c r="C20" s="14">
         <v>0</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>62</v>
+      <c r="D20" s="14">
+        <v>1</v>
       </c>
       <c r="E20" s="14">
         <v>0</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>70</v>
+      <c r="F20" s="14">
+        <v>1</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>25</v>
@@ -2991,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3032,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3051,8 +3005,8 @@
       <c r="E22" s="14">
         <v>0</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>42</v>
+      <c r="F22" s="14">
+        <v>12</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>27</v>
@@ -3073,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3114,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3125,16 +3079,16 @@
         <v>4</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>29</v>
@@ -3155,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3178,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H25" s="13">
         <v>0</v>
@@ -3196,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3206,8 +3160,8 @@
       <c r="B26" s="13">
         <v>4</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>77</v>
+      <c r="C26" s="14">
+        <v>12</v>
       </c>
       <c r="D26" s="14">
         <v>0</v>
@@ -3237,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3278,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -3289,19 +3243,19 @@
         <v>5</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H28" s="19">
         <v>0</v>
@@ -3319,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -3330,19 +3284,19 @@
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H29" s="19">
         <v>0</v>
@@ -3360,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3371,19 +3325,19 @@
         <v>6</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="E30" s="16">
+        <v>13</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
@@ -3409,19 +3363,19 @@
         <v>6</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="H31" s="15">
         <v>0</v>
@@ -3447,19 +3401,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="H32" s="15">
         <v>0</v>
@@ -3485,19 +3439,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="H33" s="15">
         <v>0</v>
@@ -3523,19 +3477,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="F34" s="16">
+        <v>13</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="H34" s="15">
         <v>0</v>
@@ -3560,20 +3514,20 @@
       <c r="B35" s="15">
         <v>7</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>96</v>
+      <c r="C35" s="16">
+        <v>13</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H35" s="15">
         <v>0</v>
@@ -3611,7 +3565,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3619,7 +3573,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3627,7 +3581,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3635,7 +3589,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3643,7 +3597,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
+++ b/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="186">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1050,22 +1050,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>主公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忠臣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内奸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反贼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,3,4,5,6,7,8,8,9,9,10,10,11,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1106,6 +1090,26 @@
   </si>
   <si>
     <t>12,13</t>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loyal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guilty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2114,7 +2118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2180,13 +2184,13 @@
         <v>32</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>7</v>
@@ -2224,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>8</v>
@@ -2265,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F4" s="10">
         <v>12</v>
@@ -2300,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>39</v>
@@ -2341,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
@@ -2426,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
@@ -2473,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>14</v>
@@ -2508,7 +2512,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
@@ -2546,10 +2550,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
@@ -2669,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D14" s="18">
         <v>7</v>
@@ -3555,49 +3559,152 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>171</v>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
+++ b/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -298,13 +298,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="187">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
   </si>
   <si>
     <t>Spade</t>
@@ -1109,6 +1106,14 @@
   </si>
   <si>
     <t>rebel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1568,543 +1573,627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="127.25" customWidth="1"/>
-    <col min="6" max="6" width="63.375" customWidth="1"/>
+    <col min="6" max="6" width="127.25" customWidth="1"/>
+    <col min="7" max="7" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
       </c>
       <c r="D1" t="s">
         <v>89</v>
       </c>
       <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>91</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
         <v>124</v>
       </c>
-      <c r="F2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
       <c r="E3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
       <c r="E4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
       <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
         <v>128</v>
       </c>
-      <c r="F5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
       <c r="E6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
       <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" t="s">
         <v>131</v>
       </c>
-      <c r="F7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
       <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" t="s">
         <v>133</v>
       </c>
-      <c r="F8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2001</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
         <v>101</v>
       </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
         <v>135</v>
       </c>
-      <c r="F9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2002</v>
       </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
       <c r="E10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2003</v>
       </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="D11" t="s">
-        <v>102</v>
-      </c>
       <c r="E11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2004</v>
       </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
       <c r="E12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2005</v>
       </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
       <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
         <v>140</v>
       </c>
-      <c r="F13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2006</v>
       </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
       <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
         <v>142</v>
       </c>
-      <c r="F14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2007</v>
       </c>
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>102</v>
-      </c>
       <c r="E15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
         <v>144</v>
       </c>
-      <c r="F15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2008</v>
       </c>
-      <c r="B16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>102</v>
-      </c>
       <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
         <v>146</v>
       </c>
-      <c r="F16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3001</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
         <v>110</v>
       </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
         <v>148</v>
       </c>
-      <c r="F17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3002</v>
       </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>111</v>
-      </c>
       <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
         <v>150</v>
       </c>
-      <c r="F18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3003</v>
       </c>
-      <c r="B19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>111</v>
-      </c>
       <c r="E19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3004</v>
       </c>
-      <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
       <c r="E20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3005</v>
       </c>
-      <c r="B21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
-        <v>111</v>
-      </c>
       <c r="E21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3006</v>
       </c>
-      <c r="B22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
-        <v>111</v>
-      </c>
       <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" t="s">
         <v>155</v>
       </c>
-      <c r="F22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3007</v>
       </c>
-      <c r="B23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
-        <v>111</v>
-      </c>
       <c r="E23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" t="s">
         <v>157</v>
       </c>
-      <c r="F23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4001</v>
       </c>
-      <c r="B24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
-        <v>120</v>
-      </c>
       <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
         <v>159</v>
       </c>
-      <c r="F24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4002</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
         <v>119</v>
       </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4003</v>
       </c>
-      <c r="B26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
-        <v>120</v>
-      </c>
       <c r="E26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" t="s">
         <v>162</v>
       </c>
-      <c r="F26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4004</v>
       </c>
-      <c r="B27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="D27" t="s">
-        <v>120</v>
-      </c>
       <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" t="s">
         <v>164</v>
       </c>
-      <c r="F27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4005</v>
       </c>
-      <c r="B28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
-        <v>120</v>
-      </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2119,7 +2208,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2137,40 +2226,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2181,19 +2270,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="9">
         <v>1</v>
@@ -2211,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2228,13 +2317,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="9">
         <v>0</v>
@@ -2252,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2269,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="10">
         <v>12</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -2293,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2304,10 +2393,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="18">
         <v>12</v>
@@ -2316,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="17">
         <v>0</v>
@@ -2334,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2345,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
@@ -2354,28 +2443,28 @@
         <v>0</v>
       </c>
       <c r="F6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
-        <v>1</v>
-      </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="17">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2398,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="17">
         <v>1</v>
@@ -2416,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2430,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
@@ -2439,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="17">
         <v>0</v>
@@ -2457,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2477,10 +2566,10 @@
         <v>4</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="17">
         <v>0</v>
@@ -2498,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2512,7 +2601,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
@@ -2521,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="17">
         <v>0</v>
@@ -2539,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2550,11 +2639,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>177</v>
-      </c>
       <c r="E11" s="18">
         <v>0</v>
       </c>
@@ -2562,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="17">
         <v>0</v>
@@ -2580,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2597,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="18">
         <v>12</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="17">
         <v>1</v>
@@ -2621,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2644,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="17">
         <v>1</v>
@@ -2662,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2673,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" s="18">
         <v>7</v>
@@ -2685,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="17">
         <v>1</v>
@@ -2703,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2726,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="17">
         <v>0</v>
@@ -2744,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2761,31 +2850,31 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="17">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0</v>
-      </c>
-      <c r="K16" s="17">
-        <v>0</v>
-      </c>
-      <c r="L16" s="17">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2808,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="11">
         <v>3</v>
@@ -2826,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2849,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
@@ -2867,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2890,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="13">
         <v>0</v>
@@ -2908,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2931,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
@@ -2949,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2972,7 +3061,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -2990,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3013,7 +3102,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="13">
         <v>0</v>
@@ -3031,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3054,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
@@ -3072,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3083,19 +3172,19 @@
         <v>4</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="E24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="G24" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H24" s="13">
         <v>0</v>
@@ -3113,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3136,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H25" s="13">
         <v>0</v>
@@ -3154,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3177,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" s="13">
         <v>0</v>
@@ -3195,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3218,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="13">
         <v>0</v>
@@ -3236,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -3247,19 +3336,19 @@
         <v>5</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="19">
         <v>0</v>
@@ -3277,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -3288,37 +3377,37 @@
         <v>5</v>
       </c>
       <c r="C29" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="G29" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="19" t="s">
+      <c r="H29" s="19">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
+        <v>0</v>
+      </c>
+      <c r="J29" s="19">
+        <v>0</v>
+      </c>
+      <c r="K29" s="19">
+        <v>0</v>
+      </c>
+      <c r="L29" s="19">
+        <v>1</v>
+      </c>
+      <c r="M29" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="H29" s="19">
-        <v>0</v>
-      </c>
-      <c r="I29" s="19">
-        <v>0</v>
-      </c>
-      <c r="J29" s="19">
-        <v>0</v>
-      </c>
-      <c r="K29" s="19">
-        <v>0</v>
-      </c>
-      <c r="L29" s="19">
-        <v>1</v>
-      </c>
-      <c r="M29" s="21" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3329,19 +3418,19 @@
         <v>6</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="16">
         <v>13</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
@@ -3367,19 +3456,19 @@
         <v>6</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="15">
         <v>0</v>
@@ -3405,19 +3494,19 @@
         <v>6</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="H32" s="15">
         <v>0</v>
@@ -3443,19 +3532,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="G33" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H33" s="15">
         <v>0</v>
@@ -3481,19 +3570,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="E34" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="16">
         <v>13</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H34" s="15">
         <v>0</v>
@@ -3522,16 +3611,16 @@
         <v>13</v>
       </c>
       <c r="D35" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="F35" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H35" s="15">
         <v>0</v>
@@ -3561,7 +3650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -3569,22 +3658,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
         <v>181</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>184</v>
-      </c>
-      <c r="F1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
+++ b/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="roles" sheetId="1" r:id="rId1"/>
@@ -298,19 +298,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="189">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spade</t>
-  </si>
-  <si>
-    <t>Plum</t>
-  </si>
-  <si>
-    <t>Heart</t>
   </si>
   <si>
     <t>diamond</t>
@@ -1071,9 +1062,6 @@
     <t>3,4,6,7,8,9,12</t>
   </si>
   <si>
-    <t>3.4.12</t>
-  </si>
-  <si>
     <t>11,12</t>
   </si>
   <si>
@@ -1114,6 +1102,30 @@
   </si>
   <si>
     <t>identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1575,7 +1587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1587,25 +1599,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>92</v>
-      </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1616,19 +1628,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1639,16 +1651,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1659,16 +1671,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1679,19 +1691,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1702,16 +1714,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1722,19 +1734,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1745,19 +1757,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1768,19 +1780,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1791,16 +1803,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1811,16 +1823,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1831,16 +1843,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1851,19 +1863,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1874,19 +1886,19 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1897,19 +1909,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1920,19 +1932,19 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1943,19 +1955,19 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1966,19 +1978,19 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1989,16 +2001,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2009,16 +2021,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2029,16 +2041,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2049,19 +2061,19 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2072,19 +2084,19 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2095,19 +2107,19 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2118,16 +2130,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2138,19 +2150,19 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2161,19 +2173,19 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2184,16 +2196,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D28">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2205,17 +2217,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="4" customWidth="1"/>
-    <col min="5" max="6" width="18" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="11" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="111.875" customWidth="1"/>
@@ -2226,40 +2239,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2270,19 +2283,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2" s="9">
         <v>1</v>
@@ -2300,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2317,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="9">
         <v>0</v>
@@ -2341,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2358,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F4" s="10">
         <v>12</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -2382,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2393,10 +2406,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="18">
         <v>12</v>
@@ -2405,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H5" s="17">
         <v>0</v>
@@ -2423,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2434,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
@@ -2443,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H6" s="17">
         <v>0</v>
@@ -2464,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2487,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H7" s="17">
         <v>1</v>
@@ -2505,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2519,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
@@ -2528,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H8" s="17">
         <v>0</v>
@@ -2546,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2562,14 +2575,14 @@
       <c r="D9" s="18">
         <v>0</v>
       </c>
-      <c r="E9" s="18">
-        <v>4</v>
+      <c r="E9" s="18" t="s">
+        <v>169</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H9" s="17">
         <v>0</v>
@@ -2587,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2601,16 +2614,16 @@
         <v>11</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
       </c>
-      <c r="F10" s="18">
-        <v>0</v>
+      <c r="F10" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" s="17">
         <v>0</v>
@@ -2628,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2638,23 +2651,23 @@
       <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>176</v>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
       </c>
       <c r="E11" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="18">
         <v>0</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="17">
         <v>0</v>
@@ -2666,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2679,20 +2692,20 @@
       <c r="B12" s="17">
         <v>2</v>
       </c>
-      <c r="C12" s="18">
-        <v>0</v>
+      <c r="C12" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>82</v>
+        <v>7</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
       </c>
       <c r="F12" s="18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="17">
         <v>1</v>
@@ -2707,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2733,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="17">
         <v>0</v>
@@ -2751,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2761,207 +2774,207 @@
       <c r="B14" s="17">
         <v>2</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>177</v>
+      <c r="C14" s="18">
+        <v>0</v>
       </c>
       <c r="D14" s="18">
-        <v>7</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="F14" s="18">
         <v>0</v>
       </c>
       <c r="G14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>301</v>
+      </c>
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="17">
-        <v>1</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0</v>
-      </c>
-      <c r="K14" s="17">
-        <v>0</v>
-      </c>
-      <c r="L14" s="17">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
-        <v>211</v>
-      </c>
-      <c r="B15" s="17">
-        <v>2</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17" t="s">
+      <c r="H15" s="11">
+        <v>3</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>302</v>
+      </c>
+      <c r="B16" s="11">
+        <v>3</v>
+      </c>
+      <c r="C16" s="12">
+        <v>6</v>
+      </c>
+      <c r="D16" s="12">
+        <v>6</v>
+      </c>
+      <c r="E16" s="12">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="17">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>1</v>
-      </c>
-      <c r="J15" s="17">
-        <v>0</v>
-      </c>
-      <c r="K15" s="17">
-        <v>0</v>
-      </c>
-      <c r="L15" s="17">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
-        <v>212</v>
-      </c>
-      <c r="B16" s="17">
-        <v>2</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
-      <c r="D16" s="18">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17" t="s">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>401</v>
+      </c>
+      <c r="B17" s="13">
+        <v>4</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14">
+        <v>5</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="17">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0</v>
-      </c>
-      <c r="K16" s="17">
-        <v>0</v>
-      </c>
-      <c r="L16" s="17">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>5</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>402</v>
+      </c>
+      <c r="B18" s="13">
+        <v>4</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>301</v>
-      </c>
-      <c r="B17" s="11">
-        <v>3</v>
-      </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="11">
-        <v>3</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>302</v>
-      </c>
-      <c r="B18" s="11">
-        <v>3</v>
-      </c>
-      <c r="C18" s="12">
-        <v>6</v>
-      </c>
-      <c r="D18" s="12">
-        <v>6</v>
-      </c>
-      <c r="E18" s="12">
-        <v>6</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B19" s="13">
         <v>4</v>
@@ -2973,13 +2986,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
         <v>5</v>
       </c>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
       <c r="G19" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="13">
         <v>0</v>
@@ -2988,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" s="13">
         <v>0</v>
@@ -2997,12 +3010,12 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B20" s="13">
         <v>4</v>
@@ -3011,16 +3024,16 @@
         <v>0</v>
       </c>
       <c r="D20" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="14">
         <v>0</v>
       </c>
       <c r="F20" s="14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
@@ -3029,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K20" s="13">
         <v>0</v>
@@ -3038,18 +3051,18 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B21" s="13">
         <v>4</v>
       </c>
       <c r="C21" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="14">
         <v>0</v>
@@ -3058,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -3070,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" s="13">
         <v>0</v>
@@ -3079,30 +3092,30 @@
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B22" s="13">
         <v>4</v>
       </c>
-      <c r="C22" s="14">
-        <v>0</v>
-      </c>
-      <c r="D22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
-        <v>12</v>
+      <c r="C22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="13">
         <v>0</v>
@@ -3111,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K22" s="13">
         <v>0</v>
@@ -3120,18 +3133,18 @@
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B23" s="13">
         <v>4</v>
       </c>
       <c r="C23" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D23" s="14">
         <v>0</v>
@@ -3143,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
@@ -3161,30 +3174,30 @@
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B24" s="13">
         <v>4</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>64</v>
+      <c r="C24" s="14">
+        <v>12</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H24" s="13">
         <v>0</v>
@@ -3193,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24" s="13">
         <v>0</v>
@@ -3202,18 +3215,18 @@
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B25" s="13">
         <v>4</v>
       </c>
       <c r="C25" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" s="14">
         <v>0</v>
@@ -3225,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H25" s="13">
         <v>0</v>
@@ -3234,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" s="13">
         <v>0</v>
@@ -3246,191 +3259,185 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
-        <v>408</v>
-      </c>
-      <c r="B26" s="13">
-        <v>4</v>
-      </c>
-      <c r="C26" s="14">
-        <v>12</v>
-      </c>
-      <c r="D26" s="14">
-        <v>0</v>
-      </c>
-      <c r="E26" s="14">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="13">
-        <v>3</v>
-      </c>
-      <c r="K26" s="13">
-        <v>0</v>
-      </c>
-      <c r="L26" s="13">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2" t="s">
+    <row r="26" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19">
+        <v>501</v>
+      </c>
+      <c r="B26" s="19">
+        <v>5</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
-        <v>409</v>
-      </c>
-      <c r="B27" s="13">
-        <v>4</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="D26" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19">
+        <v>0</v>
+      </c>
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19">
+        <v>1</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19">
+        <v>502</v>
+      </c>
+      <c r="B27" s="19">
         <v>5</v>
       </c>
-      <c r="D27" s="14">
-        <v>0</v>
-      </c>
-      <c r="E27" s="14">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <v>3</v>
-      </c>
-      <c r="K27" s="13">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <v>1</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
-        <v>501</v>
-      </c>
-      <c r="B28" s="19">
-        <v>5</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="20" t="s">
+      <c r="C27" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="19" t="s">
+      <c r="E27" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0</v>
+      </c>
+      <c r="J27" s="19">
+        <v>0</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0</v>
+      </c>
+      <c r="L27" s="19">
+        <v>1</v>
+      </c>
+      <c r="M27" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="19">
-        <v>0</v>
-      </c>
-      <c r="I28" s="19">
-        <v>0</v>
-      </c>
-      <c r="J28" s="19">
-        <v>0</v>
-      </c>
-      <c r="K28" s="19">
-        <v>0</v>
-      </c>
-      <c r="L28" s="19">
-        <v>1</v>
-      </c>
-      <c r="M28" s="21" t="s">
+    </row>
+    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>601</v>
+      </c>
+      <c r="B28" s="15">
+        <v>6</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="16">
+        <v>13</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>1</v>
+      </c>
+      <c r="L28" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>602</v>
+      </c>
+      <c r="B29" s="15">
+        <v>6</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
-        <v>502</v>
-      </c>
-      <c r="B29" s="19">
-        <v>5</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="19">
-        <v>0</v>
-      </c>
-      <c r="I29" s="19">
-        <v>0</v>
-      </c>
-      <c r="J29" s="19">
-        <v>0</v>
-      </c>
-      <c r="K29" s="19">
-        <v>0</v>
-      </c>
-      <c r="L29" s="19">
-        <v>1</v>
-      </c>
-      <c r="M29" s="21" t="s">
+      <c r="E29" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>69</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <v>1</v>
+      </c>
+      <c r="L29" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B30" s="15">
         <v>6</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="16">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
@@ -3450,25 +3457,25 @@
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
-        <v>602</v>
+        <v>701</v>
       </c>
       <c r="B31" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H31" s="15">
         <v>0</v>
@@ -3480,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L31" s="15">
         <v>1</v>
@@ -3488,22 +3495,22 @@
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
-        <v>603</v>
+        <v>702</v>
       </c>
       <c r="B32" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="F32" s="16">
+        <v>13</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>75</v>
@@ -3518,33 +3525,33 @@
         <v>0</v>
       </c>
       <c r="K32" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L32" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B33" s="15">
         <v>7</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>63</v>
+      <c r="C33" s="16">
+        <v>13</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E33" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="G33" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H33" s="15">
         <v>0</v>
@@ -3562,80 +3569,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
-        <v>702</v>
-      </c>
-      <c r="B34" s="15">
-        <v>7</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="16">
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17">
+        <v>207</v>
+      </c>
+      <c r="B38" s="17">
+        <v>2</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="18">
+        <v>0</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="17">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17">
+        <v>0</v>
+      </c>
+      <c r="J38" s="17">
+        <v>0</v>
+      </c>
+      <c r="K38" s="17">
+        <v>0</v>
+      </c>
+      <c r="L38" s="17">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
+        <v>207</v>
+      </c>
+      <c r="B39" s="17">
+        <v>2</v>
+      </c>
+      <c r="C39" s="18">
+        <v>0</v>
+      </c>
+      <c r="D39" s="18">
+        <v>0</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="18">
+        <v>12</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="15">
-        <v>0</v>
-      </c>
-      <c r="I34" s="15">
-        <v>0</v>
-      </c>
-      <c r="J34" s="15">
-        <v>0</v>
-      </c>
-      <c r="K34" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L34" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
-        <v>703</v>
-      </c>
-      <c r="B35" s="15">
-        <v>7</v>
-      </c>
-      <c r="C35" s="16">
-        <v>13</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" s="15">
-        <v>0</v>
-      </c>
-      <c r="I35" s="15">
-        <v>0</v>
-      </c>
-      <c r="J35" s="15">
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <v>-1</v>
-      </c>
-      <c r="L35" s="15">
-        <v>1</v>
+      <c r="H39" s="17">
+        <v>1</v>
+      </c>
+      <c r="I39" s="17">
+        <v>0</v>
+      </c>
+      <c r="J39" s="17">
+        <v>0</v>
+      </c>
+      <c r="K39" s="17">
+        <v>0</v>
+      </c>
+      <c r="L39" s="17">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3658,22 +3671,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
         <v>180</v>
-      </c>
-      <c r="C1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">

--- a/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
+++ b/Killers of Three Kingdoms/Killers of Three Kingdoms.xlsx
@@ -298,7 +298,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="190">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,10 +510,6 @@
     <t>锁定技，当你使用【杀】指定一名角色为目标后，无视其防具</t>
   </si>
   <si>
-    <t>当你使用【杀】指定一名异性角色后，你可令其选择一项：弃置一张手牌，或令你从中摸一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当你使用【杀】被【闪】抵消时，你可以弃置两张牌，则此【杀】依然造成伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -570,14 +566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爪黄飞电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>的卢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,23 +574,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绝影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤兔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫骍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大宛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1126,6 +1098,38 @@
   </si>
   <si>
     <t>heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪黄飞电(+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的卢(+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝影(+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤兔(-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫骍(-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宛(-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你使用【杀】指定一名异性角色后，你可令其选择一项：弃置一张手牌，或令你从中摸一张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1585,42 +1589,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="127.25" customWidth="1"/>
-    <col min="7" max="7" width="63.375" customWidth="1"/>
+    <col min="7" max="7" width="127.25" customWidth="1"/>
+    <col min="8" max="8" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1628,22 +1635,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>88</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1651,19 +1661,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>88</v>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1671,19 +1684,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>88</v>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1691,22 +1707,25 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>88</v>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1714,19 +1733,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>88</v>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1734,22 +1756,25 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>88</v>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1757,22 +1782,25 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
-        <v>88</v>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -1780,22 +1808,25 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
-        <v>98</v>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1803,19 +1834,22 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>98</v>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1823,19 +1857,22 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
-        <v>98</v>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1843,19 +1880,22 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
-        <v>98</v>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -1863,22 +1903,25 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
-        <v>98</v>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="H13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -1886,22 +1929,25 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
-        <v>98</v>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="H14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -1909,22 +1955,25 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
-        <v>98</v>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -1932,22 +1981,25 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
-        <v>98</v>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="H16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3001</v>
       </c>
@@ -1955,22 +2007,25 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
-        <v>107</v>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3002</v>
       </c>
@@ -1978,22 +2033,25 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
-        <v>107</v>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="H18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3003</v>
       </c>
@@ -2001,19 +2059,22 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19" t="s">
-        <v>107</v>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3004</v>
       </c>
@@ -2021,19 +2082,22 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
-        <v>107</v>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3005</v>
       </c>
@@ -2041,19 +2105,22 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
-        <v>107</v>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3006</v>
       </c>
@@ -2061,22 +2128,25 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" t="s">
-        <v>107</v>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="H22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3007</v>
       </c>
@@ -2084,22 +2154,25 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" t="s">
-        <v>107</v>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4001</v>
       </c>
@@ -2107,22 +2180,25 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24" t="s">
-        <v>116</v>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4002</v>
       </c>
@@ -2130,19 +2206,22 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
-        <v>116</v>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="G25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4003</v>
       </c>
@@ -2150,22 +2229,25 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
-      <c r="E26" t="s">
-        <v>116</v>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="H26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4004</v>
       </c>
@@ -2173,22 +2255,25 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" t="s">
-        <v>116</v>
+      <c r="E27">
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="H27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4005</v>
       </c>
@@ -2196,16 +2281,19 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D28">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
-        <v>116</v>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>109</v>
+      </c>
+      <c r="G28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2219,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2239,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
@@ -2263,13 +2351,13 @@
         <v>34</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M1" t="s">
         <v>29</v>
@@ -2286,13 +2374,13 @@
         <v>28</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>3</v>
@@ -2330,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>4</v>
@@ -2371,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F4" s="10">
         <v>12</v>
@@ -2406,7 +2494,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>35</v>
@@ -2447,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
@@ -2532,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E8" s="18">
         <v>0</v>
@@ -2576,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>10</v>
@@ -2614,13 +2702,13 @@
         <v>11</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E10" s="18">
         <v>0</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>11</v>
@@ -2693,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D12" s="18">
         <v>7</v>
@@ -2822,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F15" s="12">
         <v>0</v>
@@ -2928,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3010,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3051,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3092,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3103,16 +3191,16 @@
         <v>4</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>25</v>
@@ -3133,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3215,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3256,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -3267,19 +3355,19 @@
         <v>5</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" s="19">
         <v>0</v>
@@ -3297,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -3308,37 +3396,37 @@
         <v>5</v>
       </c>
       <c r="C27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="G27" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="19" t="s">
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0</v>
+      </c>
+      <c r="J27" s="19">
+        <v>0</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0</v>
+      </c>
+      <c r="L27" s="19">
+        <v>1</v>
+      </c>
+      <c r="M27" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="H27" s="19">
-        <v>0</v>
-      </c>
-      <c r="I27" s="19">
-        <v>0</v>
-      </c>
-      <c r="J27" s="19">
-        <v>0</v>
-      </c>
-      <c r="K27" s="19">
-        <v>0</v>
-      </c>
-      <c r="L27" s="19">
-        <v>1</v>
-      </c>
-      <c r="M27" s="21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3349,19 +3437,19 @@
         <v>6</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="16">
         <v>13</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="H28" s="15">
         <v>0</v>
@@ -3387,19 +3475,19 @@
         <v>6</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="H29" s="15">
         <v>0</v>
@@ -3425,19 +3513,19 @@
         <v>6</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="G30" s="15" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="H30" s="15">
         <v>0</v>
@@ -3463,19 +3551,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="G31" s="15" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="H31" s="15">
         <v>0</v>
@@ -3501,19 +3589,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="E32" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="16">
         <v>13</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="H32" s="15">
         <v>0</v>
@@ -3542,16 +3630,16 @@
         <v>13</v>
       </c>
       <c r="D33" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="F33" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="H33" s="15">
         <v>0</v>
@@ -3577,10 +3665,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E38" s="18">
         <v>0</v>
@@ -3607,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3624,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F39" s="18">
         <v>12</v>
@@ -3648,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3671,22 +3759,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
